--- a/regression/data/linear_reg.xlsx
+++ b/regression/data/linear_reg.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Chart1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -124,7 +123,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.9339171882678375E-2"/>
+                  <c:x val="7.9339171882678416E-2"/>
                   <c:y val="-0.14057176309697833"/>
                 </c:manualLayout>
               </c:layout>
@@ -204,83 +203,83 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9</c:v>
+                  <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.8</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.600000000000001</c:v>
+                  <c:v>9.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.399999999999999</c:v>
+                  <c:v>13.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.299999999999999</c:v>
+                  <c:v>12.299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.2</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.099999999999998</c:v>
+                  <c:v>13.099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>15.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.899999999999999</c:v>
+                  <c:v>14.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.799999999999997</c:v>
+                  <c:v>16.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.699999999999996</c:v>
+                  <c:v>20.699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.599999999999994</c:v>
+                  <c:v>17.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.499999999999993</c:v>
+                  <c:v>19.499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.399999999999995</c:v>
+                  <c:v>23.399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>23.299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.199999999999992</c:v>
+                  <c:v>22.199999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="156601728"/>
-        <c:axId val="162460800"/>
+        <c:axId val="145355904"/>
+        <c:axId val="145357440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="156601728"/>
+        <c:axId val="145355904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162460800"/>
+        <c:crossAx val="145357440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162460800"/>
+        <c:axId val="145357440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -288,38 +287,40 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156601728"/>
+        <c:crossAx val="145355904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668820" cy="6292921"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -332,7 +333,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -626,8 +627,8 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -652,7 +653,7 @@
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:B20" ca="1" si="0">3*A2+4+RANDBETWEEN(-2,2)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -663,7 +664,7 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9</v>
+        <v>9.9</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -674,7 +675,7 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.600000000000001</v>
+        <v>9.6000000000000014</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -707,7 +708,7 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -718,7 +719,7 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.399999999999999</v>
+        <v>13.399999999999999</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -729,7 +730,7 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.299999999999999</v>
+        <v>12.299999999999999</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -740,7 +741,7 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>15.2</v>
+        <v>12.2</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -751,7 +752,7 @@
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14.099999999999998</v>
+        <v>13.099999999999998</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -773,7 +774,7 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>18.899999999999999</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -784,7 +785,7 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>17.799999999999997</v>
+        <v>16.799999999999997</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -795,7 +796,7 @@
       </c>
       <c r="B15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>16.699999999999996</v>
+        <v>20.699999999999996</v>
       </c>
       <c r="C15" s="1"/>
     </row>
@@ -806,7 +807,7 @@
       </c>
       <c r="B16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>18.599999999999994</v>
+        <v>17.599999999999994</v>
       </c>
       <c r="C16" s="1"/>
     </row>
@@ -817,7 +818,7 @@
       </c>
       <c r="B17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>21.499999999999993</v>
+        <v>19.499999999999993</v>
       </c>
       <c r="C17" s="1"/>
     </row>
@@ -828,7 +829,7 @@
       </c>
       <c r="B18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>22.399999999999995</v>
+        <v>23.399999999999995</v>
       </c>
       <c r="C18" s="1"/>
     </row>
@@ -850,7 +851,7 @@
       </c>
       <c r="B20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25.199999999999992</v>
+        <v>22.199999999999992</v>
       </c>
       <c r="C20" s="1"/>
     </row>
@@ -1003,5 +1004,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>